--- a/readExcel/demo.xlsx
+++ b/readExcel/demo.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>nation</t>
   </si>
@@ -24,40 +24,55 @@
     <t>continents</t>
   </si>
   <si>
-    <t>châu á</t>
-  </si>
-  <si>
-    <t>Việt nam</t>
-  </si>
-  <si>
-    <t>Thái lan</t>
-  </si>
-  <si>
-    <t>châu âu</t>
-  </si>
-  <si>
-    <t>mỹ</t>
-  </si>
-  <si>
-    <t>pháp</t>
-  </si>
-  <si>
-    <t>Đức</t>
-  </si>
-  <si>
-    <t>Lào</t>
-  </si>
-  <si>
-    <t>Anh</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
-    <t>https://stackoverflow.com/questions/15153781/open-new-tabwindow-by-clicking-a-link-in-jquery</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=9hVO9-sSOVM&amp;t=138s</t>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>England</t>
+  </si>
+  <si>
+    <t>Laos</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Vi%E1%BB%87t+Nam/@15.7480907,101.4135155,6z/data=!3m1!4b1!4m5!3m4!1s0x31157a4d736a1e5f:0xb03bb0c9e2fe62be!8m2!3d14.058324!4d108.277199</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Th%C3%A1i+Lan/@12.9036075,92.4352127,5z/data=!3m1!4b1!4m5!3m4!1s0x304d8df747424db1:0x9ed72c880757e802!8m2!3d15.870032!4d100.992541</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Hoa+K%E1%BB%B3/@36.2399912,-113.763782,4z/data=!3m1!4b1!4m5!3m4!1s0x54eab584e432360b:0x1c3bb99243deb742!8m2!3d37.09024!4d-95.712891</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Ph%C3%A1p/@45.8864866,-6.9353867,5z/data=!3m1!4b1!4m5!3m4!1s0xd54a02933785731:0x6bfd3f96c747d9f7!8m2!3d46.227638!4d2.213749</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%C4%90%E1%BB%A9c/@51.0967358,5.9657008,6z/data=!3m1!4b1!4m5!3m4!1s0x479a721ec2b1be6b:0x75e85d6b8e91e55b!8m2!3d51.165691!4d10.451526</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/L%C3%A0o/@18.1643354,99.3892404,6z/data=!3m1!4b1!4m5!3m4!1s0x31149057b0824589:0xec592481f99cd81!8m2!3d19.85627!4d102.495496</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/Anh,+V%C6%B0%C6%A1ng+Qu%E1%BB%91c+Anh/@52.7601344,-6.8155288,6z/data=!3m1!4b1!4m5!3m4!1s0x47d0a98a6c1ed5df:0xf4e19525332d8ea8!8m2!3d52.3555177!4d-1.1743197</t>
   </si>
 </sst>
 </file>
@@ -402,7 +417,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -419,15 +434,15 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -435,68 +450,68 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
